--- a/patrimonios.xlsx
+++ b/patrimonios.xlsx
@@ -17,6 +17,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t xml:space="preserve">teste</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -98,7 +106,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -115,23 +123,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:A42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2"/>
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
@@ -259,7 +269,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12 Página &amp;P</oddFooter>

--- a/patrimonios.xlsx
+++ b/patrimonios.xlsx
@@ -453,13 +453,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A141"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A118" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B142" activeCellId="0" sqref="B142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66796875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.53" customWidth="1" style="3" min="2" max="2"/>
   </cols>
@@ -521,6 +521,373 @@
     <row r="19" ht="12.8" customHeight="1" s="4">
       <c r="A19" s="5" t="inlineStr"/>
     </row>
+    <row r="20" ht="12.8" customHeight="1" s="4">
+      <c r="A20" s="5" t="inlineStr"/>
+    </row>
+    <row r="21" ht="12.8" customHeight="1" s="4">
+      <c r="A21" s="5" t="inlineStr"/>
+    </row>
+    <row r="22" ht="12.8" customHeight="1" s="4">
+      <c r="A22" s="5" t="inlineStr"/>
+    </row>
+    <row r="23" ht="12.8" customHeight="1" s="4">
+      <c r="A23" s="5" t="inlineStr"/>
+    </row>
+    <row r="24" ht="12.8" customHeight="1" s="4">
+      <c r="A24" s="5" t="inlineStr"/>
+    </row>
+    <row r="25" ht="12.8" customHeight="1" s="4">
+      <c r="A25" s="5" t="inlineStr"/>
+    </row>
+    <row r="26" ht="12.8" customHeight="1" s="4">
+      <c r="A26" s="5" t="inlineStr"/>
+    </row>
+    <row r="27" ht="12.8" customHeight="1" s="4">
+      <c r="A27" s="5" t="inlineStr"/>
+    </row>
+    <row r="28" ht="12.8" customHeight="1" s="4">
+      <c r="A28" s="5" t="inlineStr"/>
+    </row>
+    <row r="29" ht="12.8" customHeight="1" s="4">
+      <c r="A29" s="5" t="inlineStr"/>
+    </row>
+    <row r="30" ht="12.8" customHeight="1" s="4">
+      <c r="A30" s="5" t="inlineStr"/>
+    </row>
+    <row r="31" ht="12.8" customHeight="1" s="4">
+      <c r="A31" s="5" t="inlineStr"/>
+    </row>
+    <row r="32" ht="12.8" customHeight="1" s="4">
+      <c r="A32" s="5" t="inlineStr"/>
+    </row>
+    <row r="33" ht="12.8" customHeight="1" s="4">
+      <c r="A33" s="5" t="inlineStr"/>
+    </row>
+    <row r="34" ht="12.8" customHeight="1" s="4">
+      <c r="A34" s="5" t="inlineStr"/>
+    </row>
+    <row r="35" ht="12.8" customHeight="1" s="4">
+      <c r="A35" s="5" t="inlineStr"/>
+    </row>
+    <row r="36" ht="12.8" customHeight="1" s="4">
+      <c r="A36" s="5" t="inlineStr"/>
+    </row>
+    <row r="37" ht="12.8" customHeight="1" s="4">
+      <c r="A37" s="5" t="inlineStr"/>
+    </row>
+    <row r="38" ht="12.8" customHeight="1" s="4">
+      <c r="A38" s="5" t="inlineStr"/>
+    </row>
+    <row r="39" ht="12.8" customHeight="1" s="4">
+      <c r="A39" s="5" t="inlineStr"/>
+    </row>
+    <row r="40" ht="12.8" customHeight="1" s="4">
+      <c r="A40" s="5" t="inlineStr"/>
+    </row>
+    <row r="41" ht="12.8" customHeight="1" s="4">
+      <c r="A41" s="5" t="inlineStr"/>
+    </row>
+    <row r="42" ht="12.8" customHeight="1" s="4">
+      <c r="A42" s="5" t="inlineStr"/>
+    </row>
+    <row r="43" ht="12.8" customHeight="1" s="4">
+      <c r="A43" s="5" t="inlineStr"/>
+    </row>
+    <row r="44" ht="12.8" customHeight="1" s="4">
+      <c r="A44" s="5" t="inlineStr"/>
+    </row>
+    <row r="45" ht="12.8" customHeight="1" s="4">
+      <c r="A45" s="5" t="inlineStr"/>
+    </row>
+    <row r="46" ht="12.8" customHeight="1" s="4">
+      <c r="A46" s="5" t="inlineStr"/>
+    </row>
+    <row r="47" ht="12.8" customHeight="1" s="4">
+      <c r="A47" s="5" t="inlineStr"/>
+    </row>
+    <row r="48" ht="12.8" customHeight="1" s="4">
+      <c r="A48" s="5" t="inlineStr"/>
+    </row>
+    <row r="49" ht="12.8" customHeight="1" s="4">
+      <c r="A49" s="5" t="inlineStr"/>
+    </row>
+    <row r="50" ht="12.8" customHeight="1" s="4">
+      <c r="A50" s="5" t="inlineStr"/>
+    </row>
+    <row r="51" ht="12.8" customHeight="1" s="4">
+      <c r="A51" s="5" t="inlineStr"/>
+    </row>
+    <row r="52" ht="12.8" customHeight="1" s="4">
+      <c r="A52" s="5" t="inlineStr"/>
+    </row>
+    <row r="53" ht="12.8" customHeight="1" s="4">
+      <c r="A53" s="5" t="inlineStr"/>
+    </row>
+    <row r="54" ht="12.8" customHeight="1" s="4">
+      <c r="A54" s="5" t="inlineStr"/>
+    </row>
+    <row r="55" ht="12.8" customHeight="1" s="4">
+      <c r="A55" s="5" t="inlineStr"/>
+    </row>
+    <row r="56" ht="12.8" customHeight="1" s="4">
+      <c r="A56" s="5" t="inlineStr"/>
+    </row>
+    <row r="57" ht="12.8" customHeight="1" s="4">
+      <c r="A57" s="5" t="inlineStr"/>
+    </row>
+    <row r="58" ht="12.8" customHeight="1" s="4">
+      <c r="A58" s="5" t="inlineStr"/>
+    </row>
+    <row r="59" ht="12.8" customHeight="1" s="4">
+      <c r="A59" s="5" t="inlineStr"/>
+    </row>
+    <row r="60" ht="12.8" customHeight="1" s="4">
+      <c r="A60" s="5" t="inlineStr"/>
+    </row>
+    <row r="61" ht="12.8" customHeight="1" s="4">
+      <c r="A61" s="5" t="inlineStr"/>
+    </row>
+    <row r="62" ht="12.8" customHeight="1" s="4">
+      <c r="A62" s="5" t="inlineStr"/>
+    </row>
+    <row r="63" ht="12.8" customHeight="1" s="4">
+      <c r="A63" s="5" t="inlineStr"/>
+    </row>
+    <row r="64" ht="12.8" customHeight="1" s="4">
+      <c r="A64" s="5" t="inlineStr"/>
+    </row>
+    <row r="65" ht="12.8" customHeight="1" s="4">
+      <c r="A65" s="5" t="inlineStr"/>
+    </row>
+    <row r="66" ht="12.8" customHeight="1" s="4">
+      <c r="A66" s="5" t="inlineStr"/>
+    </row>
+    <row r="67" ht="12.8" customHeight="1" s="4">
+      <c r="A67" s="5" t="inlineStr"/>
+    </row>
+    <row r="68" ht="12.8" customHeight="1" s="4">
+      <c r="A68" s="5" t="inlineStr"/>
+    </row>
+    <row r="69" ht="12.8" customHeight="1" s="4">
+      <c r="A69" s="5" t="inlineStr"/>
+    </row>
+    <row r="70" ht="12.8" customHeight="1" s="4">
+      <c r="A70" s="5" t="inlineStr"/>
+    </row>
+    <row r="71" ht="12.8" customHeight="1" s="4">
+      <c r="A71" s="5" t="inlineStr"/>
+    </row>
+    <row r="72" ht="12.8" customHeight="1" s="4">
+      <c r="A72" s="5" t="inlineStr"/>
+    </row>
+    <row r="73" ht="12.8" customHeight="1" s="4">
+      <c r="A73" s="5" t="inlineStr"/>
+    </row>
+    <row r="74" ht="12.8" customHeight="1" s="4">
+      <c r="A74" s="5" t="inlineStr"/>
+    </row>
+    <row r="75" ht="12.8" customHeight="1" s="4">
+      <c r="A75" s="5" t="inlineStr"/>
+    </row>
+    <row r="76" ht="12.8" customHeight="1" s="4">
+      <c r="A76" s="5" t="inlineStr"/>
+    </row>
+    <row r="77" ht="12.8" customHeight="1" s="4">
+      <c r="A77" s="5" t="inlineStr"/>
+    </row>
+    <row r="78" ht="12.8" customHeight="1" s="4">
+      <c r="A78" s="5" t="inlineStr"/>
+    </row>
+    <row r="79" ht="12.8" customHeight="1" s="4">
+      <c r="A79" s="5" t="inlineStr"/>
+    </row>
+    <row r="80" ht="12.8" customHeight="1" s="4">
+      <c r="A80" s="5" t="inlineStr"/>
+    </row>
+    <row r="81" ht="12.8" customHeight="1" s="4">
+      <c r="A81" s="5" t="inlineStr"/>
+    </row>
+    <row r="82" ht="12.8" customHeight="1" s="4">
+      <c r="A82" s="5" t="inlineStr"/>
+    </row>
+    <row r="83" ht="12.8" customHeight="1" s="4">
+      <c r="A83" s="5" t="inlineStr"/>
+    </row>
+    <row r="84" ht="12.8" customHeight="1" s="4">
+      <c r="A84" s="5" t="inlineStr"/>
+    </row>
+    <row r="85" ht="12.8" customHeight="1" s="4">
+      <c r="A85" s="5" t="inlineStr"/>
+    </row>
+    <row r="86" ht="12.8" customHeight="1" s="4">
+      <c r="A86" s="5" t="inlineStr"/>
+    </row>
+    <row r="87" ht="12.8" customHeight="1" s="4">
+      <c r="A87" s="5" t="inlineStr"/>
+    </row>
+    <row r="88" ht="12.8" customHeight="1" s="4">
+      <c r="A88" s="5" t="inlineStr"/>
+    </row>
+    <row r="89" ht="12.8" customHeight="1" s="4">
+      <c r="A89" s="5" t="inlineStr"/>
+    </row>
+    <row r="90" ht="12.8" customHeight="1" s="4">
+      <c r="A90" s="5" t="inlineStr"/>
+    </row>
+    <row r="91" ht="12.8" customHeight="1" s="4">
+      <c r="A91" s="5" t="inlineStr"/>
+    </row>
+    <row r="92" ht="12.8" customHeight="1" s="4">
+      <c r="A92" s="5" t="inlineStr"/>
+    </row>
+    <row r="93" ht="12.8" customHeight="1" s="4">
+      <c r="A93" s="5" t="inlineStr"/>
+    </row>
+    <row r="94" ht="12.8" customHeight="1" s="4">
+      <c r="A94" s="5" t="inlineStr"/>
+    </row>
+    <row r="95" ht="12.8" customHeight="1" s="4">
+      <c r="A95" s="5" t="inlineStr"/>
+    </row>
+    <row r="96" ht="12.8" customHeight="1" s="4">
+      <c r="A96" s="5" t="inlineStr"/>
+    </row>
+    <row r="97" ht="12.8" customHeight="1" s="4">
+      <c r="A97" s="5" t="inlineStr"/>
+    </row>
+    <row r="98" ht="12.8" customHeight="1" s="4">
+      <c r="A98" s="5" t="inlineStr"/>
+    </row>
+    <row r="99" ht="12.8" customHeight="1" s="4">
+      <c r="A99" s="5" t="inlineStr"/>
+    </row>
+    <row r="100" ht="12.8" customHeight="1" s="4">
+      <c r="A100" s="5" t="inlineStr"/>
+    </row>
+    <row r="101" ht="12.8" customHeight="1" s="4">
+      <c r="A101" s="5" t="inlineStr"/>
+    </row>
+    <row r="102" ht="12.8" customHeight="1" s="4">
+      <c r="A102" s="5" t="inlineStr"/>
+    </row>
+    <row r="103" ht="12.8" customHeight="1" s="4">
+      <c r="A103" s="5" t="inlineStr"/>
+    </row>
+    <row r="104" ht="12.8" customHeight="1" s="4">
+      <c r="A104" s="5" t="inlineStr"/>
+    </row>
+    <row r="105" ht="12.8" customHeight="1" s="4">
+      <c r="A105" s="5" t="inlineStr"/>
+    </row>
+    <row r="106" ht="12.8" customHeight="1" s="4">
+      <c r="A106" s="5" t="inlineStr"/>
+    </row>
+    <row r="107" ht="12.8" customHeight="1" s="4">
+      <c r="A107" s="5" t="inlineStr"/>
+    </row>
+    <row r="108" ht="12.8" customHeight="1" s="4">
+      <c r="A108" s="5" t="inlineStr"/>
+    </row>
+    <row r="109" ht="12.8" customHeight="1" s="4">
+      <c r="A109" s="5" t="inlineStr"/>
+    </row>
+    <row r="110" ht="12.8" customHeight="1" s="4">
+      <c r="A110" s="5" t="inlineStr"/>
+    </row>
+    <row r="111" ht="12.8" customHeight="1" s="4">
+      <c r="A111" s="5" t="inlineStr"/>
+    </row>
+    <row r="112" ht="12.8" customHeight="1" s="4">
+      <c r="A112" s="5" t="inlineStr"/>
+    </row>
+    <row r="113" ht="12.8" customHeight="1" s="4">
+      <c r="A113" s="5" t="inlineStr"/>
+    </row>
+    <row r="114" ht="12.8" customHeight="1" s="4">
+      <c r="A114" s="5" t="inlineStr"/>
+    </row>
+    <row r="115" ht="12.8" customHeight="1" s="4">
+      <c r="A115" s="5" t="inlineStr"/>
+    </row>
+    <row r="116" ht="12.8" customHeight="1" s="4">
+      <c r="A116" s="5" t="inlineStr"/>
+    </row>
+    <row r="117" ht="12.8" customHeight="1" s="4">
+      <c r="A117" s="5" t="inlineStr"/>
+    </row>
+    <row r="118" ht="12.8" customHeight="1" s="4">
+      <c r="A118" s="5" t="inlineStr"/>
+    </row>
+    <row r="119" ht="12.8" customHeight="1" s="4">
+      <c r="A119" s="5" t="inlineStr"/>
+    </row>
+    <row r="120" ht="12.8" customHeight="1" s="4">
+      <c r="A120" s="5" t="inlineStr"/>
+    </row>
+    <row r="121" ht="12.8" customHeight="1" s="4">
+      <c r="A121" s="5" t="inlineStr"/>
+    </row>
+    <row r="122" ht="12.8" customHeight="1" s="4">
+      <c r="A122" s="5" t="inlineStr"/>
+    </row>
+    <row r="123" ht="12.8" customHeight="1" s="4">
+      <c r="A123" s="5" t="inlineStr"/>
+    </row>
+    <row r="124" ht="12.8" customHeight="1" s="4">
+      <c r="A124" s="5" t="inlineStr"/>
+    </row>
+    <row r="125" ht="12.8" customHeight="1" s="4">
+      <c r="A125" s="5" t="inlineStr"/>
+    </row>
+    <row r="126" ht="12.8" customHeight="1" s="4">
+      <c r="A126" s="5" t="inlineStr"/>
+    </row>
+    <row r="127" ht="12.8" customHeight="1" s="4">
+      <c r="A127" s="5" t="inlineStr"/>
+    </row>
+    <row r="128" ht="12.8" customHeight="1" s="4">
+      <c r="A128" s="5" t="inlineStr"/>
+    </row>
+    <row r="129" ht="12.8" customHeight="1" s="4">
+      <c r="A129" s="5" t="inlineStr"/>
+    </row>
+    <row r="130" ht="12.8" customHeight="1" s="4">
+      <c r="A130" s="5" t="inlineStr"/>
+    </row>
+    <row r="131" ht="12.8" customHeight="1" s="4">
+      <c r="A131" s="5" t="inlineStr"/>
+    </row>
+    <row r="132" ht="12.8" customHeight="1" s="4">
+      <c r="A132" s="5" t="inlineStr"/>
+    </row>
+    <row r="133" ht="12.8" customHeight="1" s="4">
+      <c r="A133" s="5" t="inlineStr"/>
+    </row>
+    <row r="134" ht="12.8" customHeight="1" s="4">
+      <c r="A134" s="5" t="inlineStr"/>
+    </row>
+    <row r="135" ht="12.8" customHeight="1" s="4">
+      <c r="A135" s="5" t="inlineStr"/>
+    </row>
+    <row r="136" ht="12.8" customHeight="1" s="4">
+      <c r="A136" s="5" t="inlineStr"/>
+    </row>
+    <row r="137" ht="12.8" customHeight="1" s="4">
+      <c r="A137" s="5" t="inlineStr"/>
+    </row>
+    <row r="138" ht="12.8" customHeight="1" s="4">
+      <c r="A138" s="5" t="inlineStr"/>
+    </row>
+    <row r="139" ht="12.8" customHeight="1" s="4">
+      <c r="A139" s="5" t="inlineStr"/>
+    </row>
+    <row r="140" ht="12.8" customHeight="1" s="4">
+      <c r="A140" s="5" t="inlineStr"/>
+    </row>
+    <row r="141" ht="12.8" customHeight="1" s="4">
+      <c r="A141" s="5" t="inlineStr"/>
+    </row>
+    <row r="1048427" ht="12.8" customHeight="1" s="4"/>
     <row r="1048428" ht="12.8" customHeight="1" s="4"/>
     <row r="1048429" ht="12.8" customHeight="1" s="4"/>
     <row r="1048430" ht="12.8" customHeight="1" s="4"/>
